--- a/biology/Microbiologie/Azospirillum/Azospirillum.xlsx
+++ b/biology/Microbiologie/Azospirillum/Azospirillum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Azospirillum est un genre de protéobactéries de la famille des Rhodospirillaceae, qui comprend une quinzaine d'espèces.
-Ce sont des bactéries à Gram négatif, microaérophiles, non fermentaires et fixatrices de l'azote, qui colonisent la rhizosphère des graminées.Ces bactéries stimulent la croissance des plantes par divers mécanismes, en particulier en synthétisant des hormones végétales (auxines)[2].
+Ce sont des bactéries à Gram négatif, microaérophiles, non fermentaires et fixatrices de l'azote, qui colonisent la rhizosphère des graminées.Ces bactéries stimulent la croissance des plantes par divers mécanismes, en particulier en synthétisant des hormones végétales (auxines).
 L'ingénieur agronome brésilienne Johanna Döbereiner y consacre ses recherches qui auront un impact majeur sur l'agriculture brésilienne. Azospirillum doebereinerae est nommée en son honneur.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (15 décembre 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (15 décembre 2017) :
 Azospirillum amazonense Magalhaes &amp; al., 1984
 Azospirillum brasilense Tarrand &amp; al., 1979
 Azospirillum canadense Mehnaz &amp; al., 2007
